--- a/PythonResources/Data/Consumption/Sympheny/post_1349_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1349_coo.xlsx
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>2.265005383714981</v>
+        <v>2.26500538371498</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>0.458749958237377</v>
+        <v>0.4587499582373769</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>0.1011514174966927</v>
+        <v>0.1011514174966926</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -18135,7 +18135,7 @@
         <v>2224</v>
       </c>
       <c r="B2224">
-        <v>2.462661284319352</v>
+        <v>2.462661284319351</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -18287,7 +18287,7 @@
         <v>2243</v>
       </c>
       <c r="B2243">
-        <v>0.5017522717401562</v>
+        <v>0.5017522717401561</v>
       </c>
     </row>
     <row r="2244" spans="1:2">
@@ -18319,7 +18319,7 @@
         <v>2247</v>
       </c>
       <c r="B2247">
-        <v>6.190686085162928</v>
+        <v>6.190686085162927</v>
       </c>
     </row>
     <row r="2248" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>0.0513900066292669</v>
+        <v>0.0513900066292668</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>2.280294899801943</v>
+        <v>2.280294899801942</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23495,7 +23495,7 @@
         <v>2894</v>
       </c>
       <c r="B2894">
-        <v>2.609991026164797</v>
+        <v>2.609991026164796</v>
       </c>
     </row>
     <row r="2895" spans="1:2">
@@ -23847,7 +23847,7 @@
         <v>2938</v>
       </c>
       <c r="B2938">
-        <v>0.761111348824287</v>
+        <v>0.7611113488242869</v>
       </c>
     </row>
     <row r="2939" spans="1:2">
@@ -24631,7 +24631,7 @@
         <v>3036</v>
       </c>
       <c r="B3036">
-        <v>0.392219901750865</v>
+        <v>0.3922199017508649</v>
       </c>
     </row>
     <row r="3037" spans="1:2">
@@ -24799,7 +24799,7 @@
         <v>3057</v>
       </c>
       <c r="B3057">
-        <v>2.541808049020235</v>
+        <v>2.541808049020234</v>
       </c>
     </row>
     <row r="3058" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>7.638398401942241</v>
+        <v>7.63839840194224</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>12.53368118911816</v>
+        <v>12.53368118911815</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>3.41884950860779</v>
+        <v>3.418849508607789</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -26335,7 +26335,7 @@
         <v>3249</v>
       </c>
       <c r="B3249">
-        <v>0.3200101285350962</v>
+        <v>0.3200101285350961</v>
       </c>
     </row>
     <row r="3250" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>0.7533449662997613</v>
+        <v>0.7533449662997612</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26391,7 +26391,7 @@
         <v>3256</v>
       </c>
       <c r="B3256">
-        <v>24.57954563438451</v>
+        <v>24.5795456343845</v>
       </c>
     </row>
     <row r="3257" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>0.2481028046312258</v>
+        <v>0.2481028046312257</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -28031,7 +28031,7 @@
         <v>3461</v>
       </c>
       <c r="B3461">
-        <v>7.281144805814061</v>
+        <v>7.28114480581406</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -28807,7 +28807,7 @@
         <v>3558</v>
       </c>
       <c r="B3558">
-        <v>29.16171132385464</v>
+        <v>29.16171132385463</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>29.39795588811955</v>
+        <v>29.39795588811954</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>54.79637131162772</v>
+        <v>54.79637131162771</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>65.25812817872176</v>
+        <v>65.25812817872175</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29415,7 +29415,7 @@
         <v>3634</v>
       </c>
       <c r="B3634">
-        <v>47.51765899543455</v>
+        <v>47.51765899543454</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29431,7 +29431,7 @@
         <v>3636</v>
       </c>
       <c r="B3636">
-        <v>52.62090499164455</v>
+        <v>52.62090499164454</v>
       </c>
     </row>
     <row r="3637" spans="1:2">
@@ -29959,7 +29959,7 @@
         <v>3702</v>
       </c>
       <c r="B3702">
-        <v>0.3706059126495908</v>
+        <v>0.3706059126495907</v>
       </c>
     </row>
     <row r="3703" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>30.16873271979889</v>
+        <v>30.16873271979888</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30335,7 +30335,7 @@
         <v>3749</v>
       </c>
       <c r="B3749">
-        <v>15.37670472096414</v>
+        <v>15.37670472096413</v>
       </c>
     </row>
     <row r="3750" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>49.4513417085221</v>
+        <v>49.45134170852209</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30423,7 +30423,7 @@
         <v>3760</v>
       </c>
       <c r="B3760">
-        <v>59.26980764575449</v>
+        <v>59.26980764575448</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>60.18477542845521</v>
+        <v>60.1847754284552</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30783,7 +30783,7 @@
         <v>3805</v>
       </c>
       <c r="B3805">
-        <v>47.40570585866591</v>
+        <v>47.4057058586659</v>
       </c>
     </row>
     <row r="3806" spans="1:2">
@@ -31479,7 +31479,7 @@
         <v>3892</v>
       </c>
       <c r="B3892">
-        <v>6.864925316707218</v>
+        <v>6.864925316707217</v>
       </c>
     </row>
     <row r="3893" spans="1:2">
@@ -31487,7 +31487,7 @@
         <v>3893</v>
       </c>
       <c r="B3893">
-        <v>7.762484679711455</v>
+        <v>7.762484679711454</v>
       </c>
     </row>
     <row r="3894" spans="1:2">
@@ -31527,7 +31527,7 @@
         <v>3898</v>
       </c>
       <c r="B3898">
-        <v>33.23044586069396</v>
+        <v>33.23044586069395</v>
       </c>
     </row>
     <row r="3899" spans="1:2">
@@ -31559,7 +31559,7 @@
         <v>3902</v>
       </c>
       <c r="B3902">
-        <v>50.66406966650275</v>
+        <v>50.66406966650274</v>
       </c>
     </row>
     <row r="3903" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>52.82927850013277</v>
+        <v>52.82927850013276</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>56.42672549970078</v>
+        <v>56.42672549970077</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>57.40499662675235</v>
+        <v>57.40499662675234</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31863,7 +31863,7 @@
         <v>3940</v>
       </c>
       <c r="B3940">
-        <v>76.70724137506588</v>
+        <v>76.70724137506586</v>
       </c>
     </row>
     <row r="3941" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>63.21893989171612</v>
+        <v>63.21893989171611</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>68.92942908003243</v>
+        <v>68.92942908003242</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32087,7 +32087,7 @@
         <v>3968</v>
       </c>
       <c r="B3968">
-        <v>62.15128209787284</v>
+        <v>62.15128209787283</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>83.30602888156473</v>
+        <v>83.30602888156471</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32639,7 +32639,7 @@
         <v>4037</v>
       </c>
       <c r="B4037">
-        <v>90.05985096751543</v>
+        <v>90.05985096751542</v>
       </c>
     </row>
     <row r="4038" spans="1:2">
@@ -32831,7 +32831,7 @@
         <v>4061</v>
       </c>
       <c r="B4061">
-        <v>63.55245473371273</v>
+        <v>63.55245473371272</v>
       </c>
     </row>
     <row r="4062" spans="1:2">
@@ -32839,7 +32839,7 @@
         <v>4062</v>
       </c>
       <c r="B4062">
-        <v>54.07541655652081</v>
+        <v>54.0754165565208</v>
       </c>
     </row>
     <row r="4063" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>67.96903528633921</v>
+        <v>67.96903528633919</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33447,7 +33447,7 @@
         <v>4138</v>
       </c>
       <c r="B4138">
-        <v>46.78644675397449</v>
+        <v>46.78644675397448</v>
       </c>
     </row>
     <row r="4139" spans="1:2">
@@ -33455,7 +33455,7 @@
         <v>4139</v>
       </c>
       <c r="B4139">
-        <v>47.0464007652671</v>
+        <v>47.04640076526709</v>
       </c>
     </row>
     <row r="4140" spans="1:2">
@@ -34071,7 +34071,7 @@
         <v>4216</v>
       </c>
       <c r="B4216">
-        <v>57.51753590559831</v>
+        <v>57.5175359055983</v>
       </c>
     </row>
     <row r="4217" spans="1:2">
@@ -34191,7 +34191,7 @@
         <v>4231</v>
       </c>
       <c r="B4231">
-        <v>32.42537971749125</v>
+        <v>32.42537971749124</v>
       </c>
     </row>
     <row r="4232" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>50.35312129448306</v>
+        <v>50.35312129448305</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34239,7 +34239,7 @@
         <v>4237</v>
       </c>
       <c r="B4237">
-        <v>57.41290954479621</v>
+        <v>57.4129095447962</v>
       </c>
     </row>
     <row r="4238" spans="1:2">
@@ -34367,7 +34367,7 @@
         <v>4253</v>
       </c>
       <c r="B4253">
-        <v>46.9493942514702</v>
+        <v>46.94939425147019</v>
       </c>
     </row>
     <row r="4254" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>38.13733426100087</v>
+        <v>38.13733426100086</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34759,7 +34759,7 @@
         <v>4302</v>
       </c>
       <c r="B4302">
-        <v>43.55592469481048</v>
+        <v>43.55592469481047</v>
       </c>
     </row>
     <row r="4303" spans="1:2">
@@ -34767,7 +34767,7 @@
         <v>4303</v>
       </c>
       <c r="B4303">
-        <v>41.90271096572183</v>
+        <v>41.90271096572182</v>
       </c>
     </row>
     <row r="4304" spans="1:2">
@@ -34807,7 +34807,7 @@
         <v>4308</v>
       </c>
       <c r="B4308">
-        <v>57.55035986192838</v>
+        <v>57.55035986192837</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -35327,7 +35327,7 @@
         <v>4373</v>
       </c>
       <c r="B4373">
-        <v>64.0811548874578</v>
+        <v>64.08115488745779</v>
       </c>
     </row>
     <row r="4374" spans="1:2">
@@ -35919,7 +35919,7 @@
         <v>4447</v>
       </c>
       <c r="B4447">
-        <v>32.07896974979354</v>
+        <v>32.07896974979353</v>
       </c>
     </row>
     <row r="4448" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>63.59319160808666</v>
+        <v>63.59319160808665</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36143,7 +36143,7 @@
         <v>4475</v>
       </c>
       <c r="B4475">
-        <v>63.46570570626897</v>
+        <v>63.46570570626896</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36663,7 +36663,7 @@
         <v>4540</v>
       </c>
       <c r="B4540">
-        <v>131.2354526863185</v>
+        <v>131.2354526863184</v>
       </c>
     </row>
     <row r="4541" spans="1:2">
@@ -36687,7 +36687,7 @@
         <v>4543</v>
       </c>
       <c r="B4543">
-        <v>71.43635874474158</v>
+        <v>71.43635874474157</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>42.30509750180386</v>
+        <v>42.30509750180385</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37519,7 +37519,7 @@
         <v>4647</v>
       </c>
       <c r="B4647">
-        <v>63.63656612180854</v>
+        <v>63.63656612180853</v>
       </c>
     </row>
     <row r="4648" spans="1:2">
@@ -38207,7 +38207,7 @@
         <v>4733</v>
       </c>
       <c r="B4733">
-        <v>49.53809073596586</v>
+        <v>49.53809073596585</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>61.05842019470468</v>
+        <v>61.05842019470467</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38407,7 +38407,7 @@
         <v>4758</v>
       </c>
       <c r="B4758">
-        <v>50.40675329455809</v>
+        <v>50.40675329455808</v>
       </c>
     </row>
     <row r="4759" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>61.68764371471059</v>
+        <v>61.68764371471058</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38455,7 +38455,7 @@
         <v>4764</v>
       </c>
       <c r="B4764">
-        <v>73.29618755608648</v>
+        <v>73.29618755608647</v>
       </c>
     </row>
     <row r="4765" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>76.03493641237675</v>
+        <v>76.03493641237674</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38591,7 +38591,7 @@
         <v>4781</v>
       </c>
       <c r="B4781">
-        <v>73.18159677996989</v>
+        <v>73.18159677996988</v>
       </c>
     </row>
     <row r="4782" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>61.35881800933256</v>
+        <v>61.35881800933255</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38631,7 +38631,7 @@
         <v>4786</v>
       </c>
       <c r="B4786">
-        <v>66.97552446527725</v>
+        <v>66.97552446527723</v>
       </c>
     </row>
     <row r="4787" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>61.89894793358542</v>
+        <v>61.89894793358541</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>67.99218789839345</v>
+        <v>67.99218789839344</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>81.42304745816558</v>
+        <v>81.42304745816557</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39767,7 +39767,7 @@
         <v>4928</v>
       </c>
       <c r="B4928">
-        <v>50.92636824610465</v>
+        <v>50.92636824610464</v>
       </c>
     </row>
     <row r="4929" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>70.46600053573387</v>
+        <v>70.46600053573385</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39831,7 +39831,7 @@
         <v>4936</v>
       </c>
       <c r="B4936">
-        <v>65.73964389524235</v>
+        <v>65.73964389524234</v>
       </c>
     </row>
     <row r="4937" spans="1:2">
@@ -39959,7 +39959,7 @@
         <v>4952</v>
       </c>
       <c r="B4952">
-        <v>57.29802569764096</v>
+        <v>57.29802569764095</v>
       </c>
     </row>
     <row r="4953" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>69.63485107009029</v>
+        <v>69.63485107009028</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>70.16999878668591</v>
+        <v>70.16999878668589</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>74.22346432241098</v>
+        <v>74.22346432241096</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>34.43027869297351</v>
+        <v>34.4302786929735</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40919,7 +40919,7 @@
         <v>5072</v>
       </c>
       <c r="B5072">
-        <v>30.37505473101648</v>
+        <v>30.37505473101647</v>
       </c>
     </row>
     <row r="5073" spans="1:2">
@@ -40935,7 +40935,7 @@
         <v>5074</v>
       </c>
       <c r="B5074">
-        <v>42.11167061628737</v>
+        <v>42.11167061628736</v>
       </c>
     </row>
     <row r="5075" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>46.57748710340895</v>
+        <v>46.57748710340894</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -41119,7 +41119,7 @@
         <v>5097</v>
       </c>
       <c r="B5097">
-        <v>47.93030301786972</v>
+        <v>47.93030301786971</v>
       </c>
     </row>
     <row r="5098" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>51.935118761177</v>
+        <v>51.93511876117699</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>59.67483182118447</v>
+        <v>59.67483182118446</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41335,7 +41335,7 @@
         <v>5124</v>
       </c>
       <c r="B5124">
-        <v>67.20998129620632</v>
+        <v>67.20998129620631</v>
       </c>
     </row>
     <row r="5125" spans="1:2">
@@ -41351,7 +41351,7 @@
         <v>5126</v>
       </c>
       <c r="B5126">
-        <v>61.50154360516064</v>
+        <v>61.50154360516063</v>
       </c>
     </row>
     <row r="5127" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>47.03878091826191</v>
+        <v>47.0387809182619</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41519,7 +41519,7 @@
         <v>5147</v>
       </c>
       <c r="B5147">
-        <v>50.50581130562562</v>
+        <v>50.50581130562561</v>
       </c>
     </row>
     <row r="5148" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>52.06787994169059</v>
+        <v>52.06787994169058</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -42135,7 +42135,7 @@
         <v>5224</v>
       </c>
       <c r="B5224">
-        <v>37.66314532044681</v>
+        <v>37.6631453204468</v>
       </c>
     </row>
     <row r="5225" spans="1:2">
@@ -42495,7 +42495,7 @@
         <v>5269</v>
       </c>
       <c r="B5269">
-        <v>41.94344784009576</v>
+        <v>41.94344784009575</v>
       </c>
     </row>
     <row r="5270" spans="1:2">
@@ -42671,7 +42671,7 @@
         <v>5291</v>
       </c>
       <c r="B5291">
-        <v>37.40582894850215</v>
+        <v>37.40582894850214</v>
       </c>
     </row>
     <row r="5292" spans="1:2">
@@ -42847,7 +42847,7 @@
         <v>5313</v>
       </c>
       <c r="B5313">
-        <v>36.28512529666117</v>
+        <v>36.28512529666116</v>
       </c>
     </row>
     <row r="5314" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>73.84862646396311</v>
+        <v>73.8486264639631</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>70.99587297363358</v>
+        <v>70.99587297363357</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43583,7 +43583,7 @@
         <v>5405</v>
       </c>
       <c r="B5405">
-        <v>66.21119519644846</v>
+        <v>66.21119519644844</v>
       </c>
     </row>
     <row r="5406" spans="1:2">
@@ -43599,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="B5407">
-        <v>53.41542057745546</v>
+        <v>53.41542057745545</v>
       </c>
     </row>
     <row r="5408" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>76.87810179060544</v>
+        <v>76.87810179060543</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43655,7 +43655,7 @@
         <v>5414</v>
       </c>
       <c r="B5414">
-        <v>80.55731560995997</v>
+        <v>80.55731560995996</v>
       </c>
     </row>
     <row r="5415" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>57.71858263811999</v>
+        <v>57.71858263811998</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44935,7 +44935,7 @@
         <v>5574</v>
       </c>
       <c r="B5574">
-        <v>43.7036324982958</v>
+        <v>43.70363249829579</v>
       </c>
     </row>
     <row r="5575" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>60.21261717712804</v>
+        <v>60.21261717712803</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>32.70291799110354</v>
+        <v>32.70291799110353</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45327,7 +45327,7 @@
         <v>5623</v>
       </c>
       <c r="B5623">
-        <v>0.8332390621492307</v>
+        <v>0.8332390621492306</v>
       </c>
     </row>
     <row r="5624" spans="1:2">
@@ -45335,7 +45335,7 @@
         <v>5624</v>
       </c>
       <c r="B5624">
-        <v>5.288085900293717</v>
+        <v>5.288085900293716</v>
       </c>
     </row>
     <row r="5625" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>64.85808621094903</v>
+        <v>64.85808621094901</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46287,7 +46287,7 @@
         <v>5743</v>
       </c>
       <c r="B5743">
-        <v>35.64066208264487</v>
+        <v>35.64066208264486</v>
       </c>
     </row>
     <row r="5744" spans="1:2">
@@ -46311,7 +46311,7 @@
         <v>5746</v>
       </c>
       <c r="B5746">
-        <v>51.62973873889188</v>
+        <v>51.62973873889187</v>
       </c>
     </row>
     <row r="5747" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>47.70874131264174</v>
+        <v>47.70874131264173</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46351,7 +46351,7 @@
         <v>5751</v>
       </c>
       <c r="B5751">
-        <v>60.71435479531626</v>
+        <v>60.71435479531625</v>
       </c>
     </row>
     <row r="5752" spans="1:2">
@@ -46479,7 +46479,7 @@
         <v>5767</v>
       </c>
       <c r="B5767">
-        <v>42.1524074906613</v>
+        <v>42.15240749066129</v>
       </c>
     </row>
     <row r="5768" spans="1:2">
@@ -46543,7 +46543,7 @@
         <v>5775</v>
       </c>
       <c r="B5775">
-        <v>49.15856374089942</v>
+        <v>49.15856374089941</v>
       </c>
     </row>
     <row r="5776" spans="1:2">
@@ -46551,7 +46551,7 @@
         <v>5776</v>
       </c>
       <c r="B5776">
-        <v>47.81307460240518</v>
+        <v>47.81307460240517</v>
       </c>
     </row>
     <row r="5777" spans="1:2">
@@ -46679,7 +46679,7 @@
         <v>5792</v>
       </c>
       <c r="B5792">
-        <v>15.36070304225323</v>
+        <v>15.36070304225322</v>
       </c>
     </row>
     <row r="5793" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>36.79477583289325</v>
+        <v>36.79477583289324</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -46927,7 +46927,7 @@
         <v>5823</v>
       </c>
       <c r="B5823">
-        <v>52.6000969478996</v>
+        <v>52.60009694789959</v>
       </c>
     </row>
     <row r="5824" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>20.83905066084589</v>
+        <v>20.83905066084588</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>50.21537790631223</v>
+        <v>50.21537790631222</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48767,7 +48767,7 @@
         <v>6053</v>
       </c>
       <c r="B6053">
-        <v>46.63346367179327</v>
+        <v>46.63346367179326</v>
       </c>
     </row>
     <row r="6054" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>41.92557050673742</v>
+        <v>41.92557050673741</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48967,7 +48967,7 @@
         <v>6078</v>
       </c>
       <c r="B6078">
-        <v>18.7257447081628</v>
+        <v>18.72574470816279</v>
       </c>
     </row>
     <row r="6079" spans="1:2">
@@ -49047,7 +49047,7 @@
         <v>6088</v>
       </c>
       <c r="B6088">
-        <v>47.4414605253826</v>
+        <v>47.44146052538259</v>
       </c>
     </row>
     <row r="6089" spans="1:2">
@@ -49151,7 +49151,7 @@
         <v>6101</v>
       </c>
       <c r="B6101">
-        <v>3.987495244922398</v>
+        <v>3.987495244922397</v>
       </c>
     </row>
     <row r="6102" spans="1:2">
@@ -49231,7 +49231,7 @@
         <v>6111</v>
       </c>
       <c r="B6111">
-        <v>47.92297624190319</v>
+        <v>47.92297624190318</v>
       </c>
     </row>
     <row r="6112" spans="1:2">
@@ -49335,7 +49335,7 @@
         <v>6124</v>
       </c>
       <c r="B6124">
-        <v>6.460106291004302</v>
+        <v>6.460106291004301</v>
       </c>
     </row>
     <row r="6125" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>36.56002593092551</v>
+        <v>36.5600259309255</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49559,7 +49559,7 @@
         <v>6152</v>
       </c>
       <c r="B6152">
-        <v>11.31520903877975</v>
+        <v>11.31520903877974</v>
       </c>
     </row>
     <row r="6153" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>39.87202173883737</v>
+        <v>39.87202173883736</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -50111,7 +50111,7 @@
         <v>6221</v>
       </c>
       <c r="B6221">
-        <v>34.58326177515473</v>
+        <v>34.58326177515472</v>
       </c>
     </row>
     <row r="6222" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>47.37229576025852</v>
+        <v>47.37229576025851</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>40.94202410098994</v>
+        <v>40.94202410098993</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>0.3960620630677153</v>
+        <v>0.3960620630677152</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -52871,7 +52871,7 @@
         <v>6566</v>
       </c>
       <c r="B6566">
-        <v>0.5330639815107344</v>
+        <v>0.5330639815107343</v>
       </c>
     </row>
     <row r="6567" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>37.25812114501683</v>
+        <v>37.25812114501682</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53399,7 +53399,7 @@
         <v>6632</v>
       </c>
       <c r="B6632">
-        <v>2.907792231390136</v>
+        <v>2.907792231390135</v>
       </c>
     </row>
     <row r="6633" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>34.8329583000942</v>
+        <v>34.83295830009419</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53447,7 +53447,7 @@
         <v>6638</v>
       </c>
       <c r="B6638">
-        <v>44.17254616015395</v>
+        <v>44.17254616015394</v>
       </c>
     </row>
     <row r="6639" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>2.605348780912401</v>
+        <v>2.6053487809124</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>3.931430755226483</v>
+        <v>3.931430755226482</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54607,7 +54607,7 @@
         <v>6783</v>
       </c>
       <c r="B6783">
-        <v>6.108098666468161</v>
+        <v>6.10809866646816</v>
       </c>
     </row>
     <row r="6784" spans="1:2">
@@ -54759,7 +54759,7 @@
         <v>6802</v>
       </c>
       <c r="B6802">
-        <v>0.4673896924571135</v>
+        <v>0.4673896924571134</v>
       </c>
     </row>
     <row r="6803" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>15.27547798421051</v>
+        <v>15.2754779842105</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55519,7 +55519,7 @@
         <v>6897</v>
       </c>
       <c r="B6897">
-        <v>0.7084025225210441</v>
+        <v>0.708402522521044</v>
       </c>
     </row>
     <row r="6898" spans="1:2">
@@ -55751,7 +55751,7 @@
         <v>6926</v>
       </c>
       <c r="B6926">
-        <v>4.012347669000881</v>
+        <v>4.01234766900088</v>
       </c>
     </row>
     <row r="6927" spans="1:2">
@@ -56343,7 +56343,7 @@
         <v>7000</v>
       </c>
       <c r="B7000">
-        <v>2.953511313421306</v>
+        <v>2.953511313421305</v>
       </c>
     </row>
     <row r="7001" spans="1:2">
@@ -56879,7 +56879,7 @@
         <v>7067</v>
       </c>
       <c r="B7067">
-        <v>2.539079557650298</v>
+        <v>2.539079557650297</v>
       </c>
     </row>
     <row r="7068" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>7.121186632912699</v>
+        <v>7.121186632912698</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>10.06687294960175</v>
+        <v>10.06687294960174</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>4.938188387235936</v>
+        <v>4.938188387235935</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -58631,7 +58631,7 @@
         <v>7286</v>
       </c>
       <c r="B7286">
-        <v>0.7970887495303538</v>
+        <v>0.7970887495303537</v>
       </c>
     </row>
     <row r="7287" spans="1:2">
@@ -59031,7 +59031,7 @@
         <v>7336</v>
       </c>
       <c r="B7336">
-        <v>2.409712139764407</v>
+        <v>2.409712139764406</v>
       </c>
     </row>
     <row r="7337" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>0.0577162380698107</v>
+        <v>0.0577162380698106</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59991,7 +59991,7 @@
         <v>7456</v>
       </c>
       <c r="B7456">
-        <v>0.7431695398374395</v>
+        <v>0.7431695398374394</v>
       </c>
     </row>
     <row r="7457" spans="1:2">
